--- a/CTS-SAT-1 Onboard Computer/Aleks Changes OBC Development Board.xlsx
+++ b/CTS-SAT-1 Onboard Computer/Aleks Changes OBC Development Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\CTS-SAT-1-OBC-PCB\CTS-SAT-1 Onboard Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7356E428-1B0F-413D-A1DC-E418D041F801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A4894A-D9A7-42A3-9D3F-3F8F2B38C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F5AFCB7-DC5B-41D0-8DBE-59532CE56E48}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4F5AFCB7-DC5B-41D0-8DBE-59532CE56E48}"/>
   </bookViews>
   <sheets>
     <sheet name="OBC Development Board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Distributor Part #</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.1 µF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -540,16 +537,146 @@
   </si>
   <si>
     <t>SER4422CT-ND</t>
+  </si>
+  <si>
+    <t>C307350</t>
+  </si>
+  <si>
+    <t>CL10B105KA8VPNC</t>
+  </si>
+  <si>
+    <t>CL05C150JB51PNC</t>
+  </si>
+  <si>
+    <t>C307341</t>
+  </si>
+  <si>
+    <t>Murate Electronics</t>
+  </si>
+  <si>
+    <t>GRT188C81C475KE13D</t>
+  </si>
+  <si>
+    <t>C126627</t>
+  </si>
+  <si>
+    <t>CRCW06030000Z0EAHP</t>
+  </si>
+  <si>
+    <t>C844719</t>
+  </si>
+  <si>
+    <t>Vishay Intertech</t>
+  </si>
+  <si>
+    <t>TNPW0603100RBEEA</t>
+  </si>
+  <si>
+    <t>C844889</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>C2075315</t>
+  </si>
+  <si>
+    <t>TNPW060310K0DEEA</t>
+  </si>
+  <si>
+    <t>CRCW06034K70FKEAHP</t>
+  </si>
+  <si>
+    <t>C844791</t>
+  </si>
+  <si>
+    <t>GCJ188R71E104KA12D</t>
+  </si>
+  <si>
+    <t>C354391</t>
+  </si>
+  <si>
+    <t>*Only 20 in stock LCSC</t>
+  </si>
+  <si>
+    <t>GCM155R71E104KE02D</t>
+  </si>
+  <si>
+    <t>C126527</t>
+  </si>
+  <si>
+    <t>C2161680</t>
+  </si>
+  <si>
+    <t>HHXC250ARA470MF61G</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>CL10C101JB81PNC</t>
+  </si>
+  <si>
+    <t>C307357</t>
+  </si>
+  <si>
+    <t>CGA3E2C0G1H330J080AA</t>
+  </si>
+  <si>
+    <t>C2169224</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>RN73H1JTTD2200B25</t>
+  </si>
+  <si>
+    <t>C186170</t>
+  </si>
+  <si>
+    <t>KOA</t>
+  </si>
+  <si>
+    <t>*Metal film resistor</t>
+  </si>
+  <si>
+    <t>CRCW06031K00FKEAC</t>
+  </si>
+  <si>
+    <t>C844746</t>
+  </si>
+  <si>
+    <t>*Thick film resistor</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Duplicate capacitor value</t>
+  </si>
+  <si>
+    <t>Wrong temp coeff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -592,16 +719,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,9 +771,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -660,7 +811,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -766,7 +917,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -908,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -916,23 +1067,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40B7566-69E0-48F8-BD53-F99E783FB38B}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
     <col min="2" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -964,740 +1116,956 @@
         <f t="shared" si="0"/>
         <v>New Distributor Part #</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
